--- a/ReportsAndDocuments/CamiloA_HoursLog.xlsx
+++ b/ReportsAndDocuments/CamiloA_HoursLog.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -44,6 +44,15 @@
   </si>
   <si>
     <t>Finishing project proposal and submitting</t>
+  </si>
+  <si>
+    <t>Coming up with the possible endpoints</t>
+  </si>
+  <si>
+    <t>Setting up the backend and writing the project report</t>
+  </si>
+  <si>
+    <t>Committing to github repo</t>
   </si>
 </sst>
 </file>
@@ -53,7 +62,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmmm d, yyyy"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -67,6 +76,12 @@
       <name val="新細明體"/>
     </font>
     <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -112,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -126,6 +141,15 @@
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -448,6 +472,39 @@
         <v>10</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="5">
+        <v>45695.0</v>
+      </c>
+      <c r="B10" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5">
+        <v>45696.0</v>
+      </c>
+      <c r="B11" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5">
+        <v>45696.0</v>
+      </c>
+      <c r="B12" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/ReportsAndDocuments/CamiloA_HoursLog.xlsx
+++ b/ReportsAndDocuments/CamiloA_HoursLog.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -34,7 +34,7 @@
     <t>Starting the project proposal</t>
   </si>
   <si>
-    <t>In-class project consultation and inital check-in</t>
+    <t>In-class project consultation and initial check-in</t>
   </si>
   <si>
     <t>Defining the project's scope and features after consultation</t>
@@ -53,6 +53,57 @@
   </si>
   <si>
     <t>Committing to github repo</t>
+  </si>
+  <si>
+    <t>Finishing backend work</t>
+  </si>
+  <si>
+    <t>Starting the frontend</t>
+  </si>
+  <si>
+    <t>Creating the database and populating it</t>
+  </si>
+  <si>
+    <t>Continuing frontend work, including heroes page</t>
+  </si>
+  <si>
+    <t>Finishing heroes page and starting heroes detail page</t>
+  </si>
+  <si>
+    <t>Finishing heroes page, report and video</t>
+  </si>
+  <si>
+    <t>Checking out the API documentation and endpoints</t>
+  </si>
+  <si>
+    <t>Started work on the tierlist page</t>
+  </si>
+  <si>
+    <t>Finishing integrating external API to display tierlist page</t>
+  </si>
+  <si>
+    <t>Developed the search functionality and started player profile page</t>
+  </si>
+  <si>
+    <t>Unfinished version of the player profile page</t>
+  </si>
+  <si>
+    <t>Progress report</t>
+  </si>
+  <si>
+    <t>Testing API calls and finding out issues</t>
+  </si>
+  <si>
+    <t>Trying out possible solutions</t>
+  </si>
+  <si>
+    <t>Fixed backend-related issues and modified database</t>
+  </si>
+  <si>
+    <t>Testing API responses and handpicking data</t>
+  </si>
+  <si>
+    <t>Integrating API to fetch player data</t>
   </si>
 </sst>
 </file>
@@ -127,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -142,6 +193,9 @@
     </xf>
     <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
@@ -473,36 +527,245 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5">
+      <c r="A10" s="2">
         <v>45695.0</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="3">
         <v>2.0</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5">
+      <c r="A11" s="2">
         <v>45696.0</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="3">
         <v>5.0</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5">
+      <c r="A12" s="2">
         <v>45696.0</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="3">
         <v>1.0</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="4" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2">
+        <v>45706.0</v>
+      </c>
+      <c r="B13" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2">
+        <v>45707.0</v>
+      </c>
+      <c r="B14" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2">
+        <v>45709.0</v>
+      </c>
+      <c r="B15" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2">
+        <v>45710.0</v>
+      </c>
+      <c r="B16" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2">
+        <v>45711.0</v>
+      </c>
+      <c r="B17" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2">
+        <v>45712.0</v>
+      </c>
+      <c r="B18" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2">
+        <v>45727.0</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2">
+        <v>45729.0</v>
+      </c>
+      <c r="B20" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2">
+        <v>45730.0</v>
+      </c>
+      <c r="B21" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" ht="28.5" customHeight="1">
+      <c r="A22" s="2">
+        <v>45731.0</v>
+      </c>
+      <c r="B22" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2">
+        <v>45732.0</v>
+      </c>
+      <c r="B23" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2">
+        <v>45732.0</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2">
+        <v>45736.0</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2">
+        <v>45737.0</v>
+      </c>
+      <c r="B26" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2">
+        <v>45738.0</v>
+      </c>
+      <c r="B27" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2">
+        <v>45739.0</v>
+      </c>
+      <c r="B28" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="6">
+        <v>45743.0</v>
+      </c>
+      <c r="B29" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="6">
+        <v>45745.0</v>
+      </c>
+      <c r="B30" s="7">
+        <v>6.0</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="6">
+        <v>45746.0</v>
+      </c>
+      <c r="B31" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/ReportsAndDocuments/CamiloA_HoursLog.xlsx
+++ b/ReportsAndDocuments/CamiloA_HoursLog.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>Date</t>
   </si>
@@ -104,6 +104,15 @@
   </si>
   <si>
     <t>Integrating API to fetch player data</t>
+  </si>
+  <si>
+    <t>Finished overview tab including match history and rank</t>
+  </si>
+  <si>
+    <t>Finished heroes tab</t>
+  </si>
+  <si>
+    <t>Finished maps and matchups tabs</t>
   </si>
 </sst>
 </file>
@@ -736,35 +745,79 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="6">
+      <c r="A29" s="2">
         <v>45743.0</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="3">
         <v>1.5</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="6">
+      <c r="A30" s="2">
         <v>45745.0</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="3">
         <v>6.0</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="6">
+      <c r="A31" s="2">
         <v>45746.0</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="3">
         <v>2.0</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="6">
+        <v>45751.0</v>
+      </c>
+      <c r="B32" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="6">
+        <v>45752.0</v>
+      </c>
+      <c r="B33" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="6">
+        <v>45753.0</v>
+      </c>
+      <c r="B34" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="6">
+        <v>45753.0</v>
+      </c>
+      <c r="B35" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>25</v>
       </c>
     </row>

--- a/ReportsAndDocuments/CamiloA_HoursLog.xlsx
+++ b/ReportsAndDocuments/CamiloA_HoursLog.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>Date</t>
   </si>
@@ -113,6 +113,27 @@
   </si>
   <si>
     <t>Finished maps and matchups tabs</t>
+  </si>
+  <si>
+    <t>Unfinished hero rankings page</t>
+  </si>
+  <si>
+    <t>Rankings page and home page finished, navbar styling</t>
+  </si>
+  <si>
+    <t>Rebuilt heroes page</t>
+  </si>
+  <si>
+    <t>User demo</t>
+  </si>
+  <si>
+    <t>Started final report and slides</t>
+  </si>
+  <si>
+    <t>Finished report and slides</t>
+  </si>
+  <si>
+    <t>Final github commit and submission on Blackboard</t>
   </si>
 </sst>
 </file>
@@ -778,47 +799,124 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="6">
+      <c r="A32" s="2">
         <v>45751.0</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="3">
         <v>5.0</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="6">
+      <c r="A33" s="2">
         <v>45752.0</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="3">
         <v>5.0</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="6">
+      <c r="A34" s="2">
         <v>45753.0</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="3">
         <v>3.0</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="6">
+      <c r="A35" s="2">
         <v>45753.0</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="3">
         <v>2.0</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="4" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="6">
+        <v>45755.0</v>
+      </c>
+      <c r="B36" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="6">
+        <v>45757.0</v>
+      </c>
+      <c r="B37" s="7">
+        <v>6.0</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="6">
+        <v>45758.0</v>
+      </c>
+      <c r="B38" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="6">
+        <v>45758.0</v>
+      </c>
+      <c r="B39" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="6">
+        <v>45759.0</v>
+      </c>
+      <c r="B40" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="6">
+        <v>45760.0</v>
+      </c>
+      <c r="B41" s="7">
+        <v>6.0</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="6">
+        <v>45760.0</v>
+      </c>
+      <c r="B42" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
